--- a/5/1/1/2/Agregados saldos 1985 a 2021 - Anual.xlsx
+++ b/5/1/1/2/Agregados saldos 1985 a 2021 - Anual.xlsx
@@ -964,7 +964,7 @@
         <v>284</v>
       </c>
       <c r="C7">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1026,7 +1026,7 @@
         <v>368</v>
       </c>
       <c r="C8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D8">
         <v>379</v>
@@ -1088,7 +1088,7 @@
         <v>480</v>
       </c>
       <c r="C9">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D9">
         <v>898</v>
@@ -1147,7 +1147,7 @@
         <v>581</v>
       </c>
       <c r="C10">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D10">
         <v>1086</v>
@@ -1265,7 +1265,7 @@
         <v>783</v>
       </c>
       <c r="C12">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D12">
         <v>1439</v>
@@ -1324,7 +1324,7 @@
         <v>857</v>
       </c>
       <c r="C13">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D13">
         <v>1687</v>
@@ -1383,7 +1383,7 @@
         <v>982</v>
       </c>
       <c r="C14">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D14">
         <v>1980</v>
@@ -1395,7 +1395,7 @@
         <v>3334</v>
       </c>
       <c r="I14">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="J14">
         <v>9814</v>
@@ -1442,7 +1442,7 @@
         <v>973</v>
       </c>
       <c r="C15">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D15">
         <v>1820</v>
@@ -1569,7 +1569,7 @@
         <v>1127</v>
       </c>
       <c r="C17">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D17">
         <v>2371</v>
@@ -1581,7 +1581,7 @@
         <v>4145</v>
       </c>
       <c r="I17">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="J17">
         <v>13861</v>
@@ -1643,7 +1643,7 @@
         <v>1231</v>
       </c>
       <c r="C18">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="D18">
         <v>2666</v>
@@ -1717,7 +1717,7 @@
         <v>1320</v>
       </c>
       <c r="C19">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D19">
         <v>2944</v>
@@ -1794,7 +1794,7 @@
         <v>1407</v>
       </c>
       <c r="C20">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D20">
         <v>3291</v>
@@ -1806,7 +1806,7 @@
         <v>5792</v>
       </c>
       <c r="I20">
-        <v>5627</v>
+        <v>5629</v>
       </c>
       <c r="J20">
         <v>14008</v>
@@ -1871,7 +1871,7 @@
         <v>1627</v>
       </c>
       <c r="C21">
-        <v>1484</v>
+        <v>1490</v>
       </c>
       <c r="D21">
         <v>3886</v>
@@ -1883,7 +1883,7 @@
         <v>7149</v>
       </c>
       <c r="I21">
-        <v>6909</v>
+        <v>6910</v>
       </c>
       <c r="J21">
         <v>17229</v>
@@ -1960,7 +1960,7 @@
         <v>7914</v>
       </c>
       <c r="I22">
-        <v>7647</v>
+        <v>7648</v>
       </c>
       <c r="J22">
         <v>23040</v>
@@ -2025,7 +2025,7 @@
         <v>2149</v>
       </c>
       <c r="C23">
-        <v>1963</v>
+        <v>1959</v>
       </c>
       <c r="D23">
         <v>5161</v>
@@ -2037,7 +2037,7 @@
         <v>9221</v>
       </c>
       <c r="I23">
-        <v>8910</v>
+        <v>8912</v>
       </c>
       <c r="J23">
         <v>27764</v>
@@ -2117,7 +2117,7 @@
         <v>2429</v>
       </c>
       <c r="C24">
-        <v>2240</v>
+        <v>2234</v>
       </c>
       <c r="D24">
         <v>6101</v>
@@ -2129,7 +2129,7 @@
         <v>10797</v>
       </c>
       <c r="I24">
-        <v>10381</v>
+        <v>10383</v>
       </c>
       <c r="J24">
         <v>34802</v>
@@ -2209,7 +2209,7 @@
         <v>2676</v>
       </c>
       <c r="C25">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="D25">
         <v>6463</v>
@@ -2227,7 +2227,7 @@
         <v>11093</v>
       </c>
       <c r="I25">
-        <v>10862</v>
+        <v>10866</v>
       </c>
       <c r="J25">
         <v>41172</v>
@@ -2322,7 +2322,7 @@
         <v>2935</v>
       </c>
       <c r="C26">
-        <v>2755</v>
+        <v>2760</v>
       </c>
       <c r="D26">
         <v>8392</v>
@@ -2340,7 +2340,7 @@
         <v>14205</v>
       </c>
       <c r="I26">
-        <v>13876</v>
+        <v>13875</v>
       </c>
       <c r="J26">
         <v>37759</v>
@@ -2435,7 +2435,7 @@
         <v>3423</v>
       </c>
       <c r="C27">
-        <v>3171</v>
+        <v>3180</v>
       </c>
       <c r="D27">
         <v>10026</v>
@@ -2453,7 +2453,7 @@
         <v>16888</v>
       </c>
       <c r="I27">
-        <v>16380</v>
+        <v>16381</v>
       </c>
       <c r="J27">
         <v>40248</v>
@@ -2548,7 +2548,7 @@
         <v>3892</v>
       </c>
       <c r="C28">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="D28">
         <v>11166</v>
@@ -2566,7 +2566,7 @@
         <v>18839</v>
       </c>
       <c r="I28">
-        <v>18177</v>
+        <v>18175</v>
       </c>
       <c r="J28">
         <v>51828</v>
@@ -2661,7 +2661,7 @@
         <v>4480</v>
       </c>
       <c r="C29">
-        <v>4197</v>
+        <v>4186</v>
       </c>
       <c r="D29">
         <v>12831</v>
@@ -2679,7 +2679,7 @@
         <v>20560</v>
       </c>
       <c r="I29">
-        <v>19565</v>
+        <v>19563</v>
       </c>
       <c r="J29">
         <v>58201</v>
@@ -2774,7 +2774,7 @@
         <v>4985</v>
       </c>
       <c r="C30">
-        <v>4753</v>
+        <v>4751</v>
       </c>
       <c r="D30">
         <v>14185</v>
@@ -2792,7 +2792,7 @@
         <v>22784</v>
       </c>
       <c r="I30">
-        <v>21822</v>
+        <v>21816</v>
       </c>
       <c r="J30">
         <v>64533</v>
@@ -2887,7 +2887,7 @@
         <v>5371</v>
       </c>
       <c r="C31">
-        <v>5120</v>
+        <v>5118</v>
       </c>
       <c r="D31">
         <v>15640</v>
@@ -2905,7 +2905,7 @@
         <v>25824</v>
       </c>
       <c r="I31">
-        <v>24853</v>
+        <v>24856</v>
       </c>
       <c r="J31">
         <v>69350</v>
@@ -3000,7 +3000,7 @@
         <v>5858</v>
       </c>
       <c r="C32">
-        <v>5601</v>
+        <v>5618</v>
       </c>
       <c r="D32">
         <v>17818</v>
@@ -3018,7 +3018,7 @@
         <v>29419</v>
       </c>
       <c r="I32">
-        <v>28303</v>
+        <v>28297</v>
       </c>
       <c r="J32">
         <v>77498</v>
@@ -3113,7 +3113,7 @@
         <v>6275</v>
       </c>
       <c r="C33">
-        <v>5949</v>
+        <v>5953</v>
       </c>
       <c r="D33">
         <v>18457</v>
@@ -3226,7 +3226,7 @@
         <v>6528</v>
       </c>
       <c r="C34">
-        <v>6195</v>
+        <v>6186</v>
       </c>
       <c r="D34">
         <v>20424</v>
@@ -3244,7 +3244,7 @@
         <v>33566</v>
       </c>
       <c r="I34">
-        <v>32385</v>
+        <v>32389</v>
       </c>
       <c r="J34">
         <v>85719</v>
@@ -3339,7 +3339,7 @@
         <v>6740</v>
       </c>
       <c r="C35">
-        <v>6459</v>
+        <v>6451</v>
       </c>
       <c r="D35">
         <v>22634</v>
@@ -3357,7 +3357,7 @@
         <v>36856</v>
       </c>
       <c r="I35">
-        <v>35492</v>
+        <v>35499</v>
       </c>
       <c r="J35">
         <v>96004</v>
@@ -3452,7 +3452,7 @@
         <v>7575</v>
       </c>
       <c r="C36">
-        <v>7385</v>
+        <v>7392</v>
       </c>
       <c r="D36">
         <v>26853</v>
@@ -3470,7 +3470,7 @@
         <v>43633</v>
       </c>
       <c r="I36">
-        <v>42613</v>
+        <v>42616</v>
       </c>
       <c r="J36">
         <v>102259</v>
@@ -3565,7 +3565,7 @@
         <v>12180</v>
       </c>
       <c r="C37">
-        <v>11822</v>
+        <v>11880</v>
       </c>
       <c r="D37">
         <v>39185</v>
@@ -3583,7 +3583,7 @@
         <v>68573</v>
       </c>
       <c r="I37">
-        <v>67334</v>
+        <v>67340</v>
       </c>
       <c r="J37">
         <v>77447</v>

--- a/5/1/1/2/Agregados saldos 1985 a 2021 - Anual.xlsx
+++ b/5/1/1/2/Agregados saldos 1985 a 2021 - Anual.xlsx
@@ -840,7 +840,7 @@
         <v>182</v>
       </c>
       <c r="C5">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5">
         <v>182</v>
@@ -902,7 +902,7 @@
         <v>222</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6">
         <v>191</v>
@@ -1026,7 +1026,7 @@
         <v>368</v>
       </c>
       <c r="C8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D8">
         <v>379</v>
@@ -1218,7 +1218,7 @@
         <v>2096</v>
       </c>
       <c r="I11">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="J11">
         <v>4786</v>
@@ -1265,7 +1265,7 @@
         <v>783</v>
       </c>
       <c r="C12">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D12">
         <v>1439</v>
@@ -1324,7 +1324,7 @@
         <v>857</v>
       </c>
       <c r="C13">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D13">
         <v>1687</v>
@@ -1383,7 +1383,7 @@
         <v>982</v>
       </c>
       <c r="C14">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D14">
         <v>1980</v>
@@ -1442,7 +1442,7 @@
         <v>973</v>
       </c>
       <c r="C15">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D15">
         <v>1820</v>
@@ -1501,7 +1501,7 @@
         <v>1184</v>
       </c>
       <c r="C16">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D16">
         <v>2062</v>
@@ -1569,7 +1569,7 @@
         <v>1127</v>
       </c>
       <c r="C17">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D17">
         <v>2371</v>
@@ -1643,7 +1643,7 @@
         <v>1231</v>
       </c>
       <c r="C18">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D18">
         <v>2666</v>
@@ -1717,7 +1717,7 @@
         <v>1320</v>
       </c>
       <c r="C19">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D19">
         <v>2944</v>
@@ -1794,7 +1794,7 @@
         <v>1407</v>
       </c>
       <c r="C20">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D20">
         <v>3291</v>
@@ -1871,7 +1871,7 @@
         <v>1627</v>
       </c>
       <c r="C21">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D21">
         <v>3886</v>
@@ -2025,7 +2025,7 @@
         <v>2149</v>
       </c>
       <c r="C23">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="D23">
         <v>5161</v>
@@ -2129,7 +2129,7 @@
         <v>10797</v>
       </c>
       <c r="I24">
-        <v>10383</v>
+        <v>10384</v>
       </c>
       <c r="J24">
         <v>34802</v>
@@ -2209,7 +2209,7 @@
         <v>2676</v>
       </c>
       <c r="C25">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="D25">
         <v>6463</v>
@@ -2322,7 +2322,7 @@
         <v>2935</v>
       </c>
       <c r="C26">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="D26">
         <v>8392</v>
@@ -2340,7 +2340,7 @@
         <v>14205</v>
       </c>
       <c r="I26">
-        <v>13875</v>
+        <v>13874</v>
       </c>
       <c r="J26">
         <v>37759</v>
@@ -2435,7 +2435,7 @@
         <v>3423</v>
       </c>
       <c r="C27">
-        <v>3180</v>
+        <v>3184</v>
       </c>
       <c r="D27">
         <v>10026</v>
@@ -2453,7 +2453,7 @@
         <v>16888</v>
       </c>
       <c r="I27">
-        <v>16381</v>
+        <v>16382</v>
       </c>
       <c r="J27">
         <v>40248</v>
@@ -2661,7 +2661,7 @@
         <v>4480</v>
       </c>
       <c r="C29">
-        <v>4186</v>
+        <v>4188</v>
       </c>
       <c r="D29">
         <v>12831</v>
@@ -2774,7 +2774,7 @@
         <v>4985</v>
       </c>
       <c r="C30">
-        <v>4751</v>
+        <v>4745</v>
       </c>
       <c r="D30">
         <v>14185</v>
@@ -2792,7 +2792,7 @@
         <v>22784</v>
       </c>
       <c r="I30">
-        <v>21816</v>
+        <v>21817</v>
       </c>
       <c r="J30">
         <v>64533</v>
@@ -2887,7 +2887,7 @@
         <v>5371</v>
       </c>
       <c r="C31">
-        <v>5118</v>
+        <v>5114</v>
       </c>
       <c r="D31">
         <v>15640</v>
@@ -2905,7 +2905,7 @@
         <v>25824</v>
       </c>
       <c r="I31">
-        <v>24856</v>
+        <v>24857</v>
       </c>
       <c r="J31">
         <v>69350</v>
@@ -3000,7 +3000,7 @@
         <v>5858</v>
       </c>
       <c r="C32">
-        <v>5618</v>
+        <v>5623</v>
       </c>
       <c r="D32">
         <v>17818</v>
@@ -3018,7 +3018,7 @@
         <v>29419</v>
       </c>
       <c r="I32">
-        <v>28297</v>
+        <v>28296</v>
       </c>
       <c r="J32">
         <v>77498</v>
@@ -3131,7 +3131,7 @@
         <v>30319</v>
       </c>
       <c r="I33">
-        <v>29139</v>
+        <v>29140</v>
       </c>
       <c r="J33">
         <v>83851</v>
@@ -3226,7 +3226,7 @@
         <v>6528</v>
       </c>
       <c r="C34">
-        <v>6186</v>
+        <v>6179</v>
       </c>
       <c r="D34">
         <v>20424</v>
@@ -3244,7 +3244,7 @@
         <v>33566</v>
       </c>
       <c r="I34">
-        <v>32389</v>
+        <v>32394</v>
       </c>
       <c r="J34">
         <v>85719</v>
@@ -3339,7 +3339,7 @@
         <v>6740</v>
       </c>
       <c r="C35">
-        <v>6451</v>
+        <v>6448</v>
       </c>
       <c r="D35">
         <v>22634</v>
@@ -3357,7 +3357,7 @@
         <v>36856</v>
       </c>
       <c r="I35">
-        <v>35499</v>
+        <v>35508</v>
       </c>
       <c r="J35">
         <v>96004</v>
@@ -3452,7 +3452,7 @@
         <v>7575</v>
       </c>
       <c r="C36">
-        <v>7392</v>
+        <v>7373</v>
       </c>
       <c r="D36">
         <v>26853</v>
@@ -3470,7 +3470,7 @@
         <v>43633</v>
       </c>
       <c r="I36">
-        <v>42616</v>
+        <v>42631</v>
       </c>
       <c r="J36">
         <v>102259</v>
@@ -3565,7 +3565,7 @@
         <v>12180</v>
       </c>
       <c r="C37">
-        <v>11880</v>
+        <v>11875</v>
       </c>
       <c r="D37">
         <v>39185</v>
@@ -3583,7 +3583,7 @@
         <v>68573</v>
       </c>
       <c r="I37">
-        <v>67340</v>
+        <v>67359</v>
       </c>
       <c r="J37">
         <v>77447</v>

--- a/5/1/1/2/Agregados saldos 1985 a 2021 - Anual.xlsx
+++ b/5/1/1/2/Agregados saldos 1985 a 2021 - Anual.xlsx
@@ -1159,7 +1159,7 @@
         <v>1738</v>
       </c>
       <c r="I10">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="J10">
         <v>4026</v>
@@ -1336,7 +1336,7 @@
         <v>2860</v>
       </c>
       <c r="I13">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="J13">
         <v>7954</v>
@@ -1454,7 +1454,7 @@
         <v>3149</v>
       </c>
       <c r="I15">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="J15">
         <v>11691</v>
@@ -1581,7 +1581,7 @@
         <v>4145</v>
       </c>
       <c r="I17">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="J17">
         <v>13861</v>
@@ -1729,7 +1729,7 @@
         <v>5063</v>
       </c>
       <c r="I19">
-        <v>4864</v>
+        <v>4863</v>
       </c>
       <c r="J19">
         <v>14693</v>
@@ -1806,7 +1806,7 @@
         <v>5792</v>
       </c>
       <c r="I20">
-        <v>5629</v>
+        <v>5628</v>
       </c>
       <c r="J20">
         <v>14008</v>
@@ -1883,7 +1883,7 @@
         <v>7149</v>
       </c>
       <c r="I21">
-        <v>6910</v>
+        <v>6909</v>
       </c>
       <c r="J21">
         <v>17229</v>
@@ -1960,7 +1960,7 @@
         <v>7914</v>
       </c>
       <c r="I22">
-        <v>7648</v>
+        <v>7643</v>
       </c>
       <c r="J22">
         <v>23040</v>
@@ -2037,7 +2037,7 @@
         <v>9221</v>
       </c>
       <c r="I23">
-        <v>8912</v>
+        <v>8905</v>
       </c>
       <c r="J23">
         <v>27764</v>
@@ -2117,7 +2117,7 @@
         <v>2429</v>
       </c>
       <c r="C24">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="D24">
         <v>6101</v>
@@ -2129,7 +2129,7 @@
         <v>10797</v>
       </c>
       <c r="I24">
-        <v>10384</v>
+        <v>10377</v>
       </c>
       <c r="J24">
         <v>34802</v>
@@ -2227,7 +2227,7 @@
         <v>11093</v>
       </c>
       <c r="I25">
-        <v>10866</v>
+        <v>10860</v>
       </c>
       <c r="J25">
         <v>41172</v>
@@ -2340,7 +2340,7 @@
         <v>14205</v>
       </c>
       <c r="I26">
-        <v>13874</v>
+        <v>13870</v>
       </c>
       <c r="J26">
         <v>37759</v>
@@ -2435,7 +2435,7 @@
         <v>3423</v>
       </c>
       <c r="C27">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="D27">
         <v>10026</v>
@@ -2453,7 +2453,7 @@
         <v>16888</v>
       </c>
       <c r="I27">
-        <v>16382</v>
+        <v>16383</v>
       </c>
       <c r="J27">
         <v>40248</v>
@@ -2566,7 +2566,7 @@
         <v>18839</v>
       </c>
       <c r="I28">
-        <v>18175</v>
+        <v>18174</v>
       </c>
       <c r="J28">
         <v>51828</v>
@@ -2661,7 +2661,7 @@
         <v>4480</v>
       </c>
       <c r="C29">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="D29">
         <v>12831</v>
@@ -2679,7 +2679,7 @@
         <v>20560</v>
       </c>
       <c r="I29">
-        <v>19563</v>
+        <v>19566</v>
       </c>
       <c r="J29">
         <v>58201</v>
@@ -2774,7 +2774,7 @@
         <v>4985</v>
       </c>
       <c r="C30">
-        <v>4745</v>
+        <v>4744</v>
       </c>
       <c r="D30">
         <v>14185</v>
@@ -2792,7 +2792,7 @@
         <v>22784</v>
       </c>
       <c r="I30">
-        <v>21817</v>
+        <v>21814</v>
       </c>
       <c r="J30">
         <v>64533</v>
@@ -3000,7 +3000,7 @@
         <v>5858</v>
       </c>
       <c r="C32">
-        <v>5623</v>
+        <v>5624</v>
       </c>
       <c r="D32">
         <v>17818</v>
@@ -3018,7 +3018,7 @@
         <v>29419</v>
       </c>
       <c r="I32">
-        <v>28296</v>
+        <v>28298</v>
       </c>
       <c r="J32">
         <v>77498</v>
@@ -3131,7 +3131,7 @@
         <v>30319</v>
       </c>
       <c r="I33">
-        <v>29140</v>
+        <v>29144</v>
       </c>
       <c r="J33">
         <v>83851</v>
@@ -3244,7 +3244,7 @@
         <v>33566</v>
       </c>
       <c r="I34">
-        <v>32394</v>
+        <v>32398</v>
       </c>
       <c r="J34">
         <v>85719</v>
@@ -3339,7 +3339,7 @@
         <v>6740</v>
       </c>
       <c r="C35">
-        <v>6448</v>
+        <v>6450</v>
       </c>
       <c r="D35">
         <v>22634</v>
@@ -3357,7 +3357,7 @@
         <v>36856</v>
       </c>
       <c r="I35">
-        <v>35508</v>
+        <v>35528</v>
       </c>
       <c r="J35">
         <v>96004</v>
@@ -3452,7 +3452,7 @@
         <v>7575</v>
       </c>
       <c r="C36">
-        <v>7373</v>
+        <v>7375</v>
       </c>
       <c r="D36">
         <v>26853</v>
@@ -3470,7 +3470,7 @@
         <v>43633</v>
       </c>
       <c r="I36">
-        <v>42631</v>
+        <v>42651</v>
       </c>
       <c r="J36">
         <v>102259</v>
@@ -3565,7 +3565,7 @@
         <v>12180</v>
       </c>
       <c r="C37">
-        <v>11875</v>
+        <v>11883</v>
       </c>
       <c r="D37">
         <v>39185</v>
@@ -3583,7 +3583,7 @@
         <v>68573</v>
       </c>
       <c r="I37">
-        <v>67359</v>
+        <v>67414</v>
       </c>
       <c r="J37">
         <v>77447</v>
